--- a/raw data/Routes.xlsx
+++ b/raw data/Routes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\web-projects\baltic-rails-leaflet\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDBF934-DBC6-4659-87A6-BC5B02DC8CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B78380F-3D0F-49F7-96AD-2597073964FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,8 +335,8 @@
   </sheetPr>
   <dimension ref="A1:E741"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A646" workbookViewId="0">
-      <selection activeCell="H657" sqref="H656:H657"/>
+    <sheetView tabSelected="1" topLeftCell="A694" workbookViewId="0">
+      <selection activeCell="D704" sqref="D704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7773,249 +7773,543 @@
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A676" s="1"/>
-      <c r="B676" s="1"/>
-      <c r="C676" s="1"/>
+      <c r="A676" s="1">
+        <v>40</v>
+      </c>
+      <c r="B676" s="1">
+        <v>1</v>
+      </c>
+      <c r="C676" s="1">
+        <v>614</v>
+      </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A677" s="1"/>
-      <c r="B677" s="1"/>
-      <c r="C677" s="1"/>
+      <c r="A677" s="1">
+        <v>40</v>
+      </c>
+      <c r="B677" s="1">
+        <v>2</v>
+      </c>
+      <c r="C677" s="1">
+        <v>615</v>
+      </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A678" s="1"/>
-      <c r="B678" s="1"/>
-      <c r="C678" s="1"/>
+      <c r="A678" s="1">
+        <v>40</v>
+      </c>
+      <c r="B678" s="1">
+        <v>3</v>
+      </c>
+      <c r="C678" s="1">
+        <v>616</v>
+      </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A679" s="1"/>
-      <c r="B679" s="1"/>
-      <c r="C679" s="1"/>
+      <c r="A679" s="1">
+        <v>40</v>
+      </c>
+      <c r="B679" s="1">
+        <v>4</v>
+      </c>
+      <c r="C679" s="1">
+        <v>617</v>
+      </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A680" s="1"/>
-      <c r="B680" s="1"/>
-      <c r="C680" s="1"/>
+      <c r="A680" s="1">
+        <v>40</v>
+      </c>
+      <c r="B680" s="1">
+        <v>5</v>
+      </c>
+      <c r="C680" s="1">
+        <v>618</v>
+      </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A681" s="1"/>
-      <c r="B681" s="1"/>
-      <c r="C681" s="1"/>
+      <c r="A681" s="1">
+        <v>40</v>
+      </c>
+      <c r="B681" s="1">
+        <v>6</v>
+      </c>
+      <c r="C681" s="1">
+        <v>619</v>
+      </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A682" s="1"/>
-      <c r="B682" s="1"/>
-      <c r="C682" s="1"/>
+      <c r="A682" s="1">
+        <v>40</v>
+      </c>
+      <c r="B682" s="1">
+        <v>7</v>
+      </c>
+      <c r="C682" s="1">
+        <v>620</v>
+      </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A683" s="1"/>
-      <c r="B683" s="1"/>
-      <c r="C683" s="1"/>
+      <c r="A683" s="1">
+        <v>40</v>
+      </c>
+      <c r="B683" s="1">
+        <v>8</v>
+      </c>
+      <c r="C683" s="1">
+        <v>621</v>
+      </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A684" s="1"/>
-      <c r="B684" s="1"/>
-      <c r="C684" s="1"/>
+      <c r="A684" s="1">
+        <v>40</v>
+      </c>
+      <c r="B684" s="1">
+        <v>9</v>
+      </c>
+      <c r="C684" s="1">
+        <v>622</v>
+      </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A685" s="1"/>
-      <c r="B685" s="1"/>
-      <c r="C685" s="1"/>
+      <c r="A685" s="1">
+        <v>40</v>
+      </c>
+      <c r="B685" s="1">
+        <v>10</v>
+      </c>
+      <c r="C685" s="1">
+        <v>623</v>
+      </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A686" s="1"/>
-      <c r="B686" s="1"/>
-      <c r="C686" s="1"/>
+      <c r="A686" s="1">
+        <v>108</v>
+      </c>
+      <c r="B686" s="1">
+        <v>0</v>
+      </c>
+      <c r="C686" s="1">
+        <v>614</v>
+      </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A687" s="1"/>
-      <c r="B687" s="1"/>
-      <c r="C687" s="1"/>
+      <c r="A687" s="1">
+        <v>109</v>
+      </c>
+      <c r="B687" s="1">
+        <v>0</v>
+      </c>
+      <c r="C687" s="1">
+        <v>623</v>
+      </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A688" s="1"/>
-      <c r="B688" s="1"/>
-      <c r="C688" s="1"/>
+      <c r="A688" s="1">
+        <v>41</v>
+      </c>
+      <c r="B688" s="1">
+        <v>1</v>
+      </c>
+      <c r="C688" s="1">
+        <v>624</v>
+      </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A689" s="1"/>
-      <c r="B689" s="1"/>
-      <c r="C689" s="1"/>
+      <c r="A689" s="1">
+        <v>41</v>
+      </c>
+      <c r="B689" s="1">
+        <v>2</v>
+      </c>
+      <c r="C689" s="1">
+        <v>625</v>
+      </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A690" s="1"/>
-      <c r="B690" s="1"/>
-      <c r="C690" s="1"/>
+      <c r="A690" s="1">
+        <v>41</v>
+      </c>
+      <c r="B690" s="1">
+        <v>3</v>
+      </c>
+      <c r="C690" s="1">
+        <v>626</v>
+      </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A691" s="1"/>
-      <c r="B691" s="1"/>
-      <c r="C691" s="1"/>
+      <c r="A691" s="1">
+        <v>41</v>
+      </c>
+      <c r="B691" s="1">
+        <v>4</v>
+      </c>
+      <c r="C691" s="1">
+        <v>627</v>
+      </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A692" s="1"/>
-      <c r="B692" s="1"/>
-      <c r="C692" s="1"/>
+      <c r="A692" s="1">
+        <v>41</v>
+      </c>
+      <c r="B692" s="1">
+        <v>5</v>
+      </c>
+      <c r="C692" s="1">
+        <v>628</v>
+      </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A693" s="1"/>
-      <c r="B693" s="1"/>
-      <c r="C693" s="1"/>
+      <c r="A693" s="1">
+        <v>42</v>
+      </c>
+      <c r="B693" s="1">
+        <v>1</v>
+      </c>
+      <c r="C693" s="1">
+        <v>629</v>
+      </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A694" s="1"/>
-      <c r="B694" s="1"/>
-      <c r="C694" s="1"/>
+      <c r="A694" s="1">
+        <v>42</v>
+      </c>
+      <c r="B694" s="1">
+        <v>2</v>
+      </c>
+      <c r="C694" s="1">
+        <v>630</v>
+      </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A695" s="1"/>
-      <c r="B695" s="1"/>
-      <c r="C695" s="1"/>
+      <c r="A695" s="1">
+        <v>42</v>
+      </c>
+      <c r="B695" s="1">
+        <v>3</v>
+      </c>
+      <c r="C695" s="1">
+        <v>631</v>
+      </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A696" s="1"/>
-      <c r="B696" s="1"/>
-      <c r="C696" s="1"/>
+      <c r="A696" s="1">
+        <v>42</v>
+      </c>
+      <c r="B696" s="1">
+        <v>4</v>
+      </c>
+      <c r="C696" s="1">
+        <v>632</v>
+      </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A697" s="1"/>
-      <c r="B697" s="1"/>
-      <c r="C697" s="1"/>
+      <c r="A697" s="1">
+        <v>42</v>
+      </c>
+      <c r="B697" s="1">
+        <v>5</v>
+      </c>
+      <c r="C697" s="1">
+        <v>633</v>
+      </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A698" s="1"/>
-      <c r="B698" s="1"/>
-      <c r="C698" s="1"/>
+      <c r="A698" s="1">
+        <v>42</v>
+      </c>
+      <c r="B698" s="1">
+        <v>6</v>
+      </c>
+      <c r="C698" s="1">
+        <v>634</v>
+      </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A699" s="1"/>
-      <c r="B699" s="1"/>
-      <c r="C699" s="1"/>
+      <c r="A699" s="1">
+        <v>42</v>
+      </c>
+      <c r="B699" s="1">
+        <v>7</v>
+      </c>
+      <c r="C699" s="1">
+        <v>635</v>
+      </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A700" s="1"/>
-      <c r="B700" s="1"/>
-      <c r="C700" s="1"/>
+      <c r="A700" s="1">
+        <v>42</v>
+      </c>
+      <c r="B700" s="1">
+        <v>8</v>
+      </c>
+      <c r="C700" s="1">
+        <v>636</v>
+      </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A701" s="1"/>
-      <c r="B701" s="1"/>
-      <c r="C701" s="1"/>
+      <c r="A701" s="1">
+        <v>42</v>
+      </c>
+      <c r="B701" s="1">
+        <v>9</v>
+      </c>
+      <c r="C701" s="1">
+        <v>637</v>
+      </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A702" s="1"/>
-      <c r="B702" s="1"/>
-      <c r="C702" s="1"/>
+      <c r="A702" s="1">
+        <v>42</v>
+      </c>
+      <c r="B702" s="1">
+        <v>10</v>
+      </c>
+      <c r="C702" s="1">
+        <v>638</v>
+      </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A703" s="1"/>
-      <c r="B703" s="1"/>
-      <c r="C703" s="1"/>
+      <c r="A703" s="1">
+        <v>42</v>
+      </c>
+      <c r="B703" s="1">
+        <v>11</v>
+      </c>
+      <c r="C703" s="1">
+        <v>639</v>
+      </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A704" s="1"/>
-      <c r="B704" s="1"/>
-      <c r="C704" s="1"/>
+      <c r="A704" s="1">
+        <v>42</v>
+      </c>
+      <c r="B704" s="1">
+        <v>12</v>
+      </c>
+      <c r="C704" s="1">
+        <v>640</v>
+      </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A705" s="1"/>
-      <c r="B705" s="1"/>
-      <c r="C705" s="1"/>
+      <c r="A705" s="1">
+        <v>42</v>
+      </c>
+      <c r="B705" s="1">
+        <v>13</v>
+      </c>
+      <c r="C705" s="1">
+        <v>641</v>
+      </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A706" s="1"/>
-      <c r="B706" s="1"/>
-      <c r="C706" s="1"/>
+      <c r="A706" s="1">
+        <v>42</v>
+      </c>
+      <c r="B706" s="1">
+        <v>14</v>
+      </c>
+      <c r="C706" s="1">
+        <v>642</v>
+      </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A707" s="1"/>
-      <c r="B707" s="1"/>
-      <c r="C707" s="1"/>
+      <c r="A707" s="1">
+        <v>42</v>
+      </c>
+      <c r="B707" s="1">
+        <v>15</v>
+      </c>
+      <c r="C707" s="1">
+        <v>643</v>
+      </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A708" s="1"/>
-      <c r="B708" s="1"/>
-      <c r="C708" s="1"/>
+      <c r="A708" s="1">
+        <v>42</v>
+      </c>
+      <c r="B708" s="1">
+        <v>16</v>
+      </c>
+      <c r="C708" s="1">
+        <v>644</v>
+      </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A709" s="1"/>
-      <c r="B709" s="1"/>
-      <c r="C709" s="1"/>
+      <c r="A709" s="1">
+        <v>110</v>
+      </c>
+      <c r="B709" s="1">
+        <v>0</v>
+      </c>
+      <c r="C709" s="1">
+        <v>624</v>
+      </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A710" s="1"/>
-      <c r="B710" s="1"/>
-      <c r="C710" s="1"/>
+      <c r="A710" s="1">
+        <v>110</v>
+      </c>
+      <c r="B710" s="1">
+        <v>0</v>
+      </c>
+      <c r="C710" s="1">
+        <v>625</v>
+      </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A711" s="1"/>
-      <c r="B711" s="1"/>
-      <c r="C711" s="1"/>
+      <c r="A711" s="1">
+        <v>110</v>
+      </c>
+      <c r="B711" s="1">
+        <v>0</v>
+      </c>
+      <c r="C711" s="1">
+        <v>626</v>
+      </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A712" s="1"/>
-      <c r="B712" s="1"/>
-      <c r="C712" s="1"/>
+      <c r="A712" s="1">
+        <v>110</v>
+      </c>
+      <c r="B712" s="1">
+        <v>0</v>
+      </c>
+      <c r="C712" s="1">
+        <v>627</v>
+      </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A713" s="1"/>
-      <c r="B713" s="1"/>
-      <c r="C713" s="1"/>
+      <c r="A713" s="1">
+        <v>110</v>
+      </c>
+      <c r="B713" s="1">
+        <v>0</v>
+      </c>
+      <c r="C713" s="1">
+        <v>645</v>
+      </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A714" s="1"/>
-      <c r="B714" s="1"/>
-      <c r="C714" s="1"/>
+      <c r="A714" s="1">
+        <v>110</v>
+      </c>
+      <c r="B714" s="1">
+        <v>0</v>
+      </c>
+      <c r="C714" s="1">
+        <v>646</v>
+      </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A715" s="1"/>
-      <c r="B715" s="1"/>
-      <c r="C715" s="1"/>
+      <c r="A715" s="1">
+        <v>110</v>
+      </c>
+      <c r="B715" s="1">
+        <v>0</v>
+      </c>
+      <c r="C715" s="1">
+        <v>647</v>
+      </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A716" s="1"/>
-      <c r="B716" s="1"/>
-      <c r="C716" s="1"/>
+      <c r="A716" s="1">
+        <v>110</v>
+      </c>
+      <c r="B716" s="1">
+        <v>0</v>
+      </c>
+      <c r="C716" s="1">
+        <v>648</v>
+      </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A717" s="1"/>
-      <c r="B717" s="1"/>
-      <c r="C717" s="1"/>
+      <c r="A717" s="1">
+        <v>110</v>
+      </c>
+      <c r="B717" s="1">
+        <v>0</v>
+      </c>
+      <c r="C717" s="1">
+        <v>649</v>
+      </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A718" s="1"/>
-      <c r="B718" s="1"/>
-      <c r="C718" s="1"/>
+      <c r="A718" s="1">
+        <v>110</v>
+      </c>
+      <c r="B718" s="1">
+        <v>0</v>
+      </c>
+      <c r="C718" s="1">
+        <v>650</v>
+      </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A719" s="1"/>
-      <c r="B719" s="1"/>
-      <c r="C719" s="1"/>
+      <c r="A719" s="1">
+        <v>110</v>
+      </c>
+      <c r="B719" s="1">
+        <v>0</v>
+      </c>
+      <c r="C719" s="1">
+        <v>651</v>
+      </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A720" s="1"/>
-      <c r="B720" s="1"/>
-      <c r="C720" s="1"/>
+      <c r="A720" s="1">
+        <v>110</v>
+      </c>
+      <c r="B720" s="1">
+        <v>0</v>
+      </c>
+      <c r="C720" s="1">
+        <v>652</v>
+      </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A721" s="1"/>
-      <c r="B721" s="1"/>
-      <c r="C721" s="1"/>
+      <c r="A721" s="1">
+        <v>43</v>
+      </c>
+      <c r="B721" s="1">
+        <v>1</v>
+      </c>
+      <c r="C721" s="1">
+        <v>652</v>
+      </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A722" s="1"/>
-      <c r="B722" s="1"/>
-      <c r="C722" s="1"/>
+      <c r="A722" s="1">
+        <v>43</v>
+      </c>
+      <c r="B722" s="1">
+        <v>2</v>
+      </c>
+      <c r="C722" s="1">
+        <v>653</v>
+      </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A723" s="1"/>
-      <c r="B723" s="1"/>
-      <c r="C723" s="1"/>
+      <c r="A723" s="1">
+        <v>43</v>
+      </c>
+      <c r="B723" s="1">
+        <v>3</v>
+      </c>
+      <c r="C723" s="1">
+        <v>654</v>
+      </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A724" s="1"/>
-      <c r="B724" s="1"/>
-      <c r="C724" s="1"/>
+      <c r="A724" s="1">
+        <v>43</v>
+      </c>
+      <c r="B724" s="1">
+        <v>4</v>
+      </c>
+      <c r="C724" s="1">
+        <v>655</v>
+      </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
